--- a/data/LarsenEtAl_Appendix1b.xlsx
+++ b/data/LarsenEtAl_Appendix1b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eal109\Documents\Git\Empirical_Pollard-Inat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8FC2CD-7A48-4DB5-A07F-94844EA8CA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3E45A8-C241-4969-AB9D-28C1E5AC81E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="7704" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="208">
   <si>
     <t>scientific_name</t>
   </si>
@@ -757,9 +757,6 @@
   </si>
   <si>
     <t>One family - few species</t>
-  </si>
-  <si>
-    <t>unknown</t>
   </si>
   <si>
     <t>larva and pupa?</t>
@@ -2141,10 +2138,10 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2200,7 +2197,7 @@
         <v>187</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>173</v>
@@ -3374,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
@@ -3918,7 +3915,7 @@
         <v>24</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="13">
         <v>0</v>
@@ -4045,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N28" s="14">
         <v>3</v>
@@ -4113,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N29" s="14">
         <v>3</v>
@@ -4249,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N31" s="5">
         <v>1</v>
@@ -4317,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N32" s="7">
         <v>3</v>
